--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H2">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I2">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J2">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N2">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O2">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P2">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q2">
-        <v>5.264264766957999</v>
+        <v>7.158248261254</v>
       </c>
       <c r="R2">
-        <v>47.37838290262199</v>
+        <v>64.424234351286</v>
       </c>
       <c r="S2">
-        <v>0.009423658985445624</v>
+        <v>0.01281333031470733</v>
       </c>
       <c r="T2">
-        <v>0.009423658985445622</v>
+        <v>0.01281333031470733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H3">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I3">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J3">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>74.707763</v>
       </c>
       <c r="O3">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P3">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q3">
-        <v>241.8647059382638</v>
+        <v>224.9193168164901</v>
       </c>
       <c r="R3">
-        <v>2176.782353444374</v>
+        <v>2024.273851348411</v>
       </c>
       <c r="S3">
-        <v>0.4329665414405757</v>
+        <v>0.4026076485957368</v>
       </c>
       <c r="T3">
-        <v>0.4329665414405755</v>
+        <v>0.4026076485957367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H4">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I4">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J4">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N4">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O4">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P4">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q4">
-        <v>0.1681869590111111</v>
+        <v>0.9046326492076666</v>
       </c>
       <c r="R4">
-        <v>1.5136826311</v>
+        <v>8.141693842869</v>
       </c>
       <c r="S4">
-        <v>0.0003010746263120998</v>
+        <v>0.00161930077369739</v>
       </c>
       <c r="T4">
-        <v>0.0003010746263120996</v>
+        <v>0.001619300773697389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H5">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I5">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J5">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N5">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O5">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P5">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q5">
-        <v>11.67036520541755</v>
+        <v>13.88535263075444</v>
       </c>
       <c r="R5">
-        <v>105.033286848758</v>
+        <v>124.96817367679</v>
       </c>
       <c r="S5">
-        <v>0.02089133939876215</v>
+        <v>0.02485490909236487</v>
       </c>
       <c r="T5">
-        <v>0.02089133939876214</v>
+        <v>0.02485490909236487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H6">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I6">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J6">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N6">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O6">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P6">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q6">
-        <v>0.1808195964328889</v>
+        <v>0.3046993830754445</v>
       </c>
       <c r="R6">
-        <v>1.627376367896</v>
+        <v>2.742294447679</v>
       </c>
       <c r="S6">
-        <v>0.000323688547233559</v>
+        <v>0.0005454147019691748</v>
       </c>
       <c r="T6">
-        <v>0.0003236885472335589</v>
+        <v>0.0005454147019691746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J7">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N7">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O7">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P7">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q7">
-        <v>4.945817133764999</v>
+        <v>7.23190695813</v>
       </c>
       <c r="R7">
-        <v>44.51235420388499</v>
+        <v>65.08716262316999</v>
       </c>
       <c r="S7">
-        <v>0.008853599911143548</v>
+        <v>0.01294518006050781</v>
       </c>
       <c r="T7">
-        <v>0.008853599911143546</v>
+        <v>0.01294518006050781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I8">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J8">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>74.707763</v>
       </c>
       <c r="O8">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P8">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q8">
         <v>227.2337467125049</v>
@@ -948,10 +948,10 @@
         <v>2045.103720412545</v>
       </c>
       <c r="S8">
-        <v>0.4067753872192077</v>
+        <v>0.4067504994253722</v>
       </c>
       <c r="T8">
-        <v>0.4067753872192076</v>
+        <v>0.4067504994253721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I9">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J9">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N9">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O9">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P9">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q9">
-        <v>0.15801293825</v>
+        <v>0.9139413598949998</v>
       </c>
       <c r="R9">
-        <v>1.42211644425</v>
+        <v>8.225472239054998</v>
       </c>
       <c r="S9">
-        <v>0.0002828619211371359</v>
+        <v>0.001635963451560416</v>
       </c>
       <c r="T9">
-        <v>0.0002828619211371359</v>
+        <v>0.001635963451560416</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I10">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J10">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N10">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O10">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P10">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q10">
-        <v>10.964397640585</v>
+        <v>14.02823353445</v>
       </c>
       <c r="R10">
-        <v>98.67957876526496</v>
+        <v>126.25410181005</v>
       </c>
       <c r="S10">
-        <v>0.01962757363463781</v>
+        <v>0.02511066722590497</v>
       </c>
       <c r="T10">
-        <v>0.01962757363463781</v>
+        <v>0.02511066722590497</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I11">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J11">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N11">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O11">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P11">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q11">
-        <v>0.16988139802</v>
+        <v>0.307834753445</v>
       </c>
       <c r="R11">
-        <v>1.52893258218</v>
+        <v>2.770512781004999</v>
       </c>
       <c r="S11">
-        <v>0.000304107873327263</v>
+        <v>0.0005510270438072634</v>
       </c>
       <c r="T11">
-        <v>0.000304107873327263</v>
+        <v>0.0005510270438072632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H12">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I12">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J12">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N12">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O12">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P12">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q12">
-        <v>0.172459864392</v>
+        <v>0.20889002831</v>
       </c>
       <c r="R12">
-        <v>1.552138779528</v>
+        <v>1.88001025479</v>
       </c>
       <c r="S12">
-        <v>0.0003087236342874035</v>
+        <v>0.0003739150745402767</v>
       </c>
       <c r="T12">
-        <v>0.0003087236342874034</v>
+        <v>0.0003739150745402766</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H13">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I13">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J13">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>74.707763</v>
       </c>
       <c r="O13">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P13">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q13">
-        <v>7.923604954130667</v>
+        <v>6.563533526990556</v>
       </c>
       <c r="R13">
-        <v>71.312444587176</v>
+        <v>59.071801742915</v>
       </c>
       <c r="S13">
-        <v>0.01418419367729926</v>
+        <v>0.01174878546308661</v>
       </c>
       <c r="T13">
-        <v>0.01418419367729926</v>
+        <v>0.01174878546308661</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H14">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I14">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J14">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N14">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O14">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P14">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q14">
-        <v>0.005509886266666667</v>
+        <v>0.02639874069833334</v>
       </c>
       <c r="R14">
-        <v>0.04958897640000001</v>
+        <v>0.237588666285</v>
       </c>
       <c r="S14">
-        <v>9.863350633798214E-06</v>
+        <v>4.725398898092927E-05</v>
       </c>
       <c r="T14">
-        <v>9.863350633798211E-06</v>
+        <v>4.725398898092926E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H15">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I15">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J15">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N15">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O15">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P15">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q15">
-        <v>0.3823268186213333</v>
+        <v>0.4051985343722223</v>
       </c>
       <c r="R15">
-        <v>3.440941367592</v>
+        <v>3.64678680935</v>
       </c>
       <c r="S15">
-        <v>0.0006844104009152533</v>
+        <v>0.000725309108381921</v>
       </c>
       <c r="T15">
-        <v>0.0006844104009152531</v>
+        <v>0.0007253091083819208</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H16">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I16">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J16">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N16">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O16">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P16">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q16">
-        <v>0.005923737589333334</v>
+        <v>0.008891653437222223</v>
       </c>
       <c r="R16">
-        <v>0.053313638304</v>
+        <v>0.080024880935</v>
       </c>
       <c r="S16">
-        <v>1.060419364001728E-05</v>
+        <v>1.591614154425434E-05</v>
       </c>
       <c r="T16">
-        <v>1.060419364001728E-05</v>
+        <v>1.591614154425433E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H17">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I17">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J17">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N17">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O17">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P17">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q17">
-        <v>0.7738054014629999</v>
+        <v>1.434193355056</v>
       </c>
       <c r="R17">
-        <v>6.964248613167</v>
+        <v>12.907740195504</v>
       </c>
       <c r="S17">
-        <v>0.001385203546419826</v>
+        <v>0.002567219314390134</v>
       </c>
       <c r="T17">
-        <v>0.001385203546419826</v>
+        <v>0.002567219314390133</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H18">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I18">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J18">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>74.707763</v>
       </c>
       <c r="O18">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P18">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q18">
-        <v>35.55220418490433</v>
+        <v>45.06378904850045</v>
       </c>
       <c r="R18">
-        <v>319.969837664139</v>
+        <v>405.574101436504</v>
       </c>
       <c r="S18">
-        <v>0.06364266678271054</v>
+        <v>0.08066459743177076</v>
       </c>
       <c r="T18">
-        <v>0.06364266678271051</v>
+        <v>0.08066459743177073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H19">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I19">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J19">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N19">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O19">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P19">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q19">
-        <v>0.02472215648333333</v>
+        <v>0.1812479934906667</v>
       </c>
       <c r="R19">
-        <v>0.22249940835</v>
+        <v>1.631231941416</v>
       </c>
       <c r="S19">
-        <v>4.425559549095069E-05</v>
+        <v>0.0003244355776320887</v>
       </c>
       <c r="T19">
-        <v>4.425559549095067E-05</v>
+        <v>0.0003244355776320886</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H20">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I20">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J20">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N20">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O20">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P20">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q20">
-        <v>1.715451640973666</v>
+        <v>2.782004723617778</v>
       </c>
       <c r="R20">
-        <v>15.439064768763</v>
+        <v>25.03804251256</v>
       </c>
       <c r="S20">
-        <v>0.003070862121530505</v>
+        <v>0.004979814077382386</v>
       </c>
       <c r="T20">
-        <v>0.003070862121530504</v>
+        <v>0.004979814077382384</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H21">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I21">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J21">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N21">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O21">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P21">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q21">
-        <v>0.02657905455066667</v>
+        <v>0.06104815236177778</v>
       </c>
       <c r="R21">
-        <v>0.239211490956</v>
+        <v>0.549433371256</v>
       </c>
       <c r="S21">
-        <v>4.757966351030948E-05</v>
+        <v>0.0001092767549776216</v>
       </c>
       <c r="T21">
-        <v>4.757966351030947E-05</v>
+        <v>0.0001092767549776215</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H22">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I22">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J22">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N22">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O22">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P22">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q22">
-        <v>0.191342513286</v>
+        <v>0.145765324502</v>
       </c>
       <c r="R22">
-        <v>1.722082619574</v>
+        <v>1.311887920518</v>
       </c>
       <c r="S22">
-        <v>0.0003425258178393877</v>
+        <v>0.0002609212733489957</v>
       </c>
       <c r="T22">
-        <v>0.0003425258178393877</v>
+        <v>0.0002609212733489956</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H23">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I23">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J23">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>74.707763</v>
       </c>
       <c r="O23">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P23">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q23">
-        <v>8.791161303261999</v>
+        <v>4.580092224515889</v>
       </c>
       <c r="R23">
-        <v>79.12045172935801</v>
+        <v>41.22083002064301</v>
       </c>
       <c r="S23">
-        <v>0.0157372225515662</v>
+        <v>0.008198407264274454</v>
       </c>
       <c r="T23">
-        <v>0.01573722255156619</v>
+        <v>0.008198407264274453</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H24">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I24">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J24">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N24">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O24">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P24">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q24">
-        <v>0.0061131643</v>
+        <v>0.01842127666633334</v>
       </c>
       <c r="R24">
-        <v>0.05501847870000001</v>
+        <v>0.165791489997</v>
       </c>
       <c r="S24">
-        <v>1.09432899436952E-05</v>
+        <v>3.297425489165557E-05</v>
       </c>
       <c r="T24">
-        <v>1.094328994369519E-05</v>
+        <v>3.297425489165556E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H25">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I25">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J25">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N25">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O25">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P25">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q25">
-        <v>0.4241878226539999</v>
+        <v>0.2827511505855556</v>
       </c>
       <c r="R25">
-        <v>3.817690403886</v>
+        <v>2.54476035527</v>
       </c>
       <c r="S25">
-        <v>0.0007593465685009446</v>
+        <v>0.0005061271636702906</v>
       </c>
       <c r="T25">
-        <v>0.0007593465685009443</v>
+        <v>0.0005061271636702905</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H26">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I26">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J26">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N26">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O26">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P26">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q26">
-        <v>0.006572328248</v>
+        <v>0.006204675058555557</v>
       </c>
       <c r="R26">
-        <v>0.059150954232</v>
+        <v>0.05584207552700001</v>
       </c>
       <c r="S26">
-        <v>1.176524792945648E-05</v>
+        <v>1.110642549952171E-05</v>
       </c>
       <c r="T26">
-        <v>1.176524792945648E-05</v>
+        <v>1.110642549952171E-05</v>
       </c>
     </row>
   </sheetData>
